--- a/import/prep/excel/64-3ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ ตค63(1-31ธค63).xlsx
+++ b/import/prep/excel/64-3ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ ตค63(1-31ธค63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6058B793-55CE-3B48-AD19-B87AD9A32AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C5E47-03BD-9F4A-96BE-A28F8BB9CDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="48460" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -12442,6 +12442,10 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12475,6 +12479,24 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12493,30 +12515,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12526,10 +12524,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12843,22 +12843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="157" t="s">
         <v>3171</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="146"/>
@@ -12880,25 +12880,25 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="156" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="156" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="160" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="147" t="s">
@@ -12907,47 +12907,47 @@
       <c r="I3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="152" t="s">
+      <c r="J3" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="156" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="152" t="s">
+      <c r="M3" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="159" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="145" t="s">
         <v>2374</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="156"/>
+      <c r="G4" s="160"/>
       <c r="H4" s="147" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
       <c r="L4" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="152"/>
-      <c r="N4" s="155"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="159"/>
       <c r="R4" s="100" t="s">
         <v>3172</v>
       </c>
@@ -54849,8 +54849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y257"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N253" sqref="N253"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -54877,22 +54877,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="158" t="s">
         <v>3142</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -54913,25 +54913,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="161" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="161" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="163" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="147" t="s">
@@ -54940,47 +54940,47 @@
       <c r="I3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="157" t="s">
+      <c r="J3" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="161" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="161" t="s">
+      <c r="N3" s="165" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
       <c r="C4" s="145" t="s">
         <v>2374</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="160"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="147" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
       <c r="L4" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="158"/>
-      <c r="N4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="166"/>
       <c r="Q4" s="102"/>
       <c r="R4" s="103" t="s">
         <v>3172</v>
@@ -67691,7 +67691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G275" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N275" sqref="N275"/>
     </sheetView>
   </sheetViews>
@@ -67719,25 +67719,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="167" t="s">
         <v>3165</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
       <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -67765,82 +67765,82 @@
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="161" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="169" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="173" t="s">
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="163" t="s">
+      <c r="N3" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="163" t="s">
+      <c r="O3" s="173" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="165" t="s">
+      <c r="Q3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="167" t="s">
+      <c r="R3" s="177" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="158"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="172"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
       <c r="P4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="168"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="178"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -69175,7 +69175,7 @@
       <c r="R24" s="66" t="s">
         <v>3479</v>
       </c>
-      <c r="X24" s="180">
+      <c r="X24" s="152">
         <f>W6-SUM(X6:X23)</f>
         <v>116.09000000000015</v>
       </c>
@@ -72232,7 +72232,7 @@
         <v>0.98</v>
       </c>
       <c r="P75" s="64">
-        <f t="shared" ref="P75:Q138" si="15">ROUNDDOWN(H75+I75+N75,2)</f>
+        <f t="shared" ref="P75:P138" si="15">ROUNDDOWN(H75+I75+N75,2)</f>
         <v>14.98</v>
       </c>
       <c r="Q75" s="64">
@@ -74099,7 +74099,7 @@
         <f t="shared" si="15"/>
         <v>22.47</v>
       </c>
-      <c r="Q106" s="181">
+      <c r="Q106" s="153">
         <v>22.47</v>
       </c>
       <c r="R106" s="66" t="s">
@@ -74161,7 +74161,7 @@
         <f t="shared" si="15"/>
         <v>18.72</v>
       </c>
-      <c r="Q107" s="182">
+      <c r="Q107" s="154">
         <v>18.72</v>
       </c>
       <c r="R107" s="66" t="s">
@@ -74223,7 +74223,7 @@
         <f t="shared" si="15"/>
         <v>37.450000000000003</v>
       </c>
-      <c r="Q108" s="181">
+      <c r="Q108" s="153">
         <v>37.450000000000003</v>
       </c>
       <c r="R108" s="66" t="s">
@@ -74285,7 +74285,7 @@
         <f t="shared" si="15"/>
         <v>29.96</v>
       </c>
-      <c r="Q109" s="183">
+      <c r="Q109" s="155">
         <v>29.96</v>
       </c>
       <c r="R109" s="66" t="s">
@@ -74347,7 +74347,7 @@
         <f t="shared" si="15"/>
         <v>86.13</v>
       </c>
-      <c r="Q110" s="182">
+      <c r="Q110" s="154">
         <v>86.13</v>
       </c>
       <c r="R110" s="66" t="s">
@@ -81613,7 +81613,7 @@
         <v>7.84</v>
       </c>
       <c r="P231" s="64">
-        <f t="shared" ref="P231:Q286" si="38">ROUNDDOWN(H231+I231+N231,2)</f>
+        <f t="shared" ref="P231:P286" si="38">ROUNDDOWN(H231+I231+N231,2)</f>
         <v>119.84</v>
       </c>
       <c r="Q231" s="64">
@@ -83478,7 +83478,7 @@
         <f t="shared" si="38"/>
         <v>419.44</v>
       </c>
-      <c r="Q262" s="181">
+      <c r="Q262" s="153">
         <v>419.44</v>
       </c>
       <c r="R262" s="73" t="s">
@@ -83540,7 +83540,7 @@
         <f t="shared" si="38"/>
         <v>685.33</v>
       </c>
-      <c r="Q263" s="182">
+      <c r="Q263" s="154">
         <v>685.32999999999993</v>
       </c>
       <c r="R263" s="73" t="s">
@@ -83602,7 +83602,7 @@
         <f t="shared" si="38"/>
         <v>5497.66</v>
       </c>
-      <c r="Q264" s="181">
+      <c r="Q264" s="153">
         <v>5497.66</v>
       </c>
       <c r="R264" s="73" t="s">
@@ -83664,7 +83664,7 @@
         <f t="shared" si="38"/>
         <v>4422.84</v>
       </c>
-      <c r="Q265" s="182">
+      <c r="Q265" s="154">
         <v>4422.84</v>
       </c>
       <c r="R265" s="73" t="s">
@@ -85166,7 +85166,7 @@
         <f>ROUNDDOWN(H290+I290+N290,2)</f>
         <v>22.47</v>
       </c>
-      <c r="Q290" s="181">
+      <c r="Q290" s="153">
         <v>22.47</v>
       </c>
       <c r="R290" s="73" t="s">
@@ -85228,7 +85228,7 @@
         <f>ROUNDDOWN(H291+I291+N291,2)</f>
         <v>29.96</v>
       </c>
-      <c r="Q291" s="182">
+      <c r="Q291" s="154">
         <v>29.96</v>
       </c>
       <c r="R291" s="73" t="s">
@@ -85346,6 +85346,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
@@ -85361,7 +85362,6 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -85372,8 +85372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E81" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView topLeftCell="F97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85401,25 +85401,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="167" t="s">
         <v>3166</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
       <c r="R1" s="53"/>
       <c r="V1" s="24"/>
     </row>
@@ -85449,87 +85449,87 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="161" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="169" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="173" t="s">
+      <c r="L3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="163" t="s">
+      <c r="N3" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="163" t="s">
+      <c r="O3" s="173" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="165" t="s">
+      <c r="Q3" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="176" t="s">
+      <c r="R3" s="183" t="s">
         <v>19</v>
       </c>
       <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="158"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="172"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
       <c r="P4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="176"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="183"/>
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="177">
+      <c r="A5" s="179">
         <v>1</v>
       </c>
       <c r="B5" s="112" t="s">
@@ -85584,14 +85584,21 @@
         <v>13195.24</v>
       </c>
       <c r="Q5" s="64">
-        <v>13195.24</v>
+        <v>1617.8400000000001</v>
       </c>
       <c r="R5" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S5" s="64">
+        <v>1617.8400000000001</v>
+      </c>
+      <c r="T5" s="69">
+        <f>SUM(S5:S11)</f>
+        <v>13195.24</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="178"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85643,13 +85650,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="64"/>
+      <c r="Q6" s="64">
+        <v>3145.7999999999997</v>
+      </c>
       <c r="R6" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S6" s="64">
+        <v>3145.7999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="178"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85701,13 +85713,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="134"/>
+      <c r="Q7" s="64">
+        <v>1450.92</v>
+      </c>
       <c r="R7" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S7" s="64">
+        <v>1450.92</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="178"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85759,13 +85776,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="134"/>
+      <c r="Q8" s="64">
+        <v>1519.4</v>
+      </c>
       <c r="R8" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S8" s="64">
+        <v>1519.4</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="178"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85817,13 +85839,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="134"/>
+      <c r="Q9" s="64">
+        <v>1622.1200000000003</v>
+      </c>
       <c r="R9" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S9" s="64">
+        <v>1622.1200000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="178"/>
+      <c r="A10" s="180"/>
       <c r="B10" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85875,13 +85902,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="134"/>
+      <c r="Q10" s="64">
+        <v>1382.44</v>
+      </c>
       <c r="R10" s="66" t="s">
         <v>3489</v>
       </c>
+      <c r="S10" s="64">
+        <v>1382.44</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="179"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="112" t="s">
         <v>3441</v>
       </c>
@@ -85933,11 +85965,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="134"/>
+      <c r="Q11" s="64">
+        <v>2456.7199999999998</v>
+      </c>
       <c r="R11" s="66" t="s">
         <v>3489</v>
       </c>
-      <c r="S11" s="31"/>
+      <c r="S11" s="64">
+        <v>2456.7199999999998</v>
+      </c>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
     </row>
@@ -88467,7 +88503,7 @@
         <f t="shared" si="4"/>
         <v>1104.24</v>
       </c>
-      <c r="Q53" s="181">
+      <c r="Q53" s="153">
         <v>1104.24</v>
       </c>
       <c r="R53" s="66"/>
@@ -88527,7 +88563,7 @@
         <f t="shared" si="4"/>
         <v>8.56</v>
       </c>
-      <c r="Q54" s="182">
+      <c r="Q54" s="154">
         <v>8.76</v>
       </c>
       <c r="R54" s="66"/>
@@ -91771,7 +91807,7 @@
         <f>ROUNDDOWN(H108+I108+N108,2)</f>
         <v>2084.36</v>
       </c>
-      <c r="Q108" s="181">
+      <c r="Q108" s="153">
         <v>2084.36</v>
       </c>
       <c r="R108" s="73" t="s">
@@ -91833,7 +91869,7 @@
         <f t="shared" si="26"/>
         <v>1990.2</v>
       </c>
-      <c r="Q109" s="182">
+      <c r="Q109" s="154">
         <v>1990.2</v>
       </c>
       <c r="R109" s="73" t="s">
@@ -91894,7 +91930,7 @@
         <f t="shared" si="26"/>
         <v>38.520000000000003</v>
       </c>
-      <c r="Q110" s="181">
+      <c r="Q110" s="153">
         <v>38.520000000000003</v>
       </c>
       <c r="R110" s="73" t="s">
@@ -91955,7 +91991,7 @@
         <f>ROUNDDOWN(H111+I111+N111,2)</f>
         <v>42.8</v>
       </c>
-      <c r="Q111" s="182">
+      <c r="Q111" s="154">
         <v>42.8</v>
       </c>
       <c r="R111" s="73" t="s">
@@ -92076,11 +92112,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -92092,7 +92124,11 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
